--- a/ExampleIG/output/StructureDefinition-henvisningsstatus.xlsx
+++ b/ExampleIG/output/StructureDefinition-henvisningsstatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T02:05:36+02:00</t>
+    <t>2025-05-29T20:33:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-henvisningsstatus.xlsx
+++ b/ExampleIG/output/StructureDefinition-henvisningsstatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T20:33:03+02:00</t>
+    <t>2025-05-29T20:44:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
